--- a/FinalProject/docs/mock_courses_taken.xlsx
+++ b/FinalProject/docs/mock_courses_taken.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrator/Documents/Projects/CS232_Assignments/FinalProject/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/administrator/Documents/Projects/CS232_Assignments/FinalProject/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73326FD0-5408-2C46-A8D2-044945AA4D8A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{460016BE-46E2-294A-9AF4-C5A516B2E51E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4020" yWindow="460" windowWidth="10480" windowHeight="19180" xr2:uid="{610C9729-745A-4348-9381-DBAB81EFF2DE}"/>
+    <workbookView xWindow="6360" yWindow="460" windowWidth="10480" windowHeight="19180" xr2:uid="{610C9729-745A-4348-9381-DBAB81EFF2DE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="427" uniqueCount="146">
   <si>
     <t>student_id</t>
   </si>
@@ -454,6 +454,15 @@
   </si>
   <si>
     <t>82-9118928</t>
+  </si>
+  <si>
+    <t>97-1216615</t>
+  </si>
+  <si>
+    <t>47-0460061</t>
+  </si>
+  <si>
+    <t>49-7500344</t>
   </si>
 </sst>
 </file>
@@ -805,11 +814,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11860926-3F5A-0646-8DF7-57E3ABBC559F}">
-  <dimension ref="A1:E204"/>
+  <dimension ref="A1:E212"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A165" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D201" sqref="D201"/>
+      <pane ySplit="1" topLeftCell="A180" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E213" sqref="E213"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -4210,6 +4219,12 @@
       <c r="C200">
         <v>1</v>
       </c>
+      <c r="D200">
+        <v>1</v>
+      </c>
+      <c r="E200">
+        <v>1</v>
+      </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
@@ -4221,6 +4236,12 @@
       <c r="C201">
         <v>1</v>
       </c>
+      <c r="D201">
+        <v>1</v>
+      </c>
+      <c r="E201">
+        <v>1</v>
+      </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
@@ -4270,6 +4291,142 @@
         <v>1</v>
       </c>
       <c r="E204">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>143</v>
+      </c>
+      <c r="B205" t="s">
+        <v>75</v>
+      </c>
+      <c r="C205">
+        <v>1</v>
+      </c>
+      <c r="D205">
+        <v>1</v>
+      </c>
+      <c r="E205">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>143</v>
+      </c>
+      <c r="B206" t="s">
+        <v>69</v>
+      </c>
+      <c r="C206">
+        <v>1</v>
+      </c>
+      <c r="D206">
+        <v>0</v>
+      </c>
+      <c r="E206">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>143</v>
+      </c>
+      <c r="B207" t="s">
+        <v>78</v>
+      </c>
+      <c r="C207">
+        <v>0</v>
+      </c>
+      <c r="D207">
+        <v>0</v>
+      </c>
+      <c r="E207">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>144</v>
+      </c>
+      <c r="B208" t="s">
+        <v>80</v>
+      </c>
+      <c r="C208">
+        <v>1</v>
+      </c>
+      <c r="D208">
+        <v>1</v>
+      </c>
+      <c r="E208">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>144</v>
+      </c>
+      <c r="B209" t="s">
+        <v>71</v>
+      </c>
+      <c r="C209">
+        <v>1</v>
+      </c>
+      <c r="D209">
+        <v>1</v>
+      </c>
+      <c r="E209">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>145</v>
+      </c>
+      <c r="B210" t="s">
+        <v>76</v>
+      </c>
+      <c r="C210">
+        <v>1</v>
+      </c>
+      <c r="D210">
+        <v>1</v>
+      </c>
+      <c r="E210">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>145</v>
+      </c>
+      <c r="B211" t="s">
+        <v>70</v>
+      </c>
+      <c r="C211">
+        <v>0</v>
+      </c>
+      <c r="D211">
+        <v>1</v>
+      </c>
+      <c r="E211">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>145</v>
+      </c>
+      <c r="B212" t="s">
+        <v>75</v>
+      </c>
+      <c r="C212">
+        <v>1</v>
+      </c>
+      <c r="D212">
+        <v>1</v>
+      </c>
+      <c r="E212">
         <v>1</v>
       </c>
     </row>
